--- a/Tables/transition_prob_reg.xlsx
+++ b/Tables/transition_prob_reg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Statistics\P27\IMSS\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A5BE40-B28B-40E3-B1A4-6894C50AA96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDE5C9F-4621-495B-9486-EEAEF00D80CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{31AC11EA-A000-4E5E-A21B-141950F46D4A}"/>
+    <workbookView xWindow="-28230" yWindow="-7500" windowWidth="21600" windowHeight="11175" xr2:uid="{31AC11EA-A000-4E5E-A21B-141950F46D4A}"/>
   </bookViews>
   <sheets>
     <sheet name="transition_prob_reg" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
   <si>
     <t>Observations</t>
   </si>
@@ -52,15 +52,6 @@
   </si>
   <si>
     <t>Woman</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Years of schooling</t>
-  </si>
-  <si>
-    <t>Weekly hours</t>
   </si>
   <si>
     <t>Log(daily income)</t>
@@ -76,9 +67,6 @@
   </si>
   <si>
     <t>No IMSS</t>
-  </si>
-  <si>
-    <t>$\Pr(X_{t+1} = \cdot \;|\; X_{t} = \cdot)$</t>
   </si>
   <si>
     <t>(2)</t>
@@ -106,6 +94,24 @@
   </si>
   <si>
     <t>IMSS</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Log(Years of schooling)</t>
+  </si>
+  <si>
+    <t>Log(Weekly hours)</t>
+  </si>
+  <si>
+    <t>Log(Age)</t>
+  </si>
+  <si>
+    <t>$\Pr(X_{t+1} = \cdot \;|\; X_{t} = Formal)$</t>
+  </si>
+  <si>
+    <t>$\Pr(X_{t+1} = \cdot \;|\; X_{t} = Informal)$</t>
   </si>
 </sst>
 </file>
@@ -181,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -202,6 +208,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -234,7 +244,7 @@
       <sheetName val="transition_prob_reg_inf"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="2">
           <cell r="G2" t="str">
             <v>(6)</v>
@@ -242,13 +252,13 @@
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>0.0056***</v>
+            <v>0.0046***</v>
           </cell>
           <cell r="C5" t="str">
-            <v>0.0077***</v>
+            <v>0.0071***</v>
           </cell>
           <cell r="D5" t="str">
-            <v>0.014***</v>
+            <v>0.013***</v>
           </cell>
           <cell r="E5" t="str">
             <v>0.013***</v>
@@ -257,7 +267,7 @@
             <v>0.031***</v>
           </cell>
           <cell r="G5" t="str">
-            <v>0.0067***</v>
+            <v>0.0066***</v>
           </cell>
         </row>
         <row r="6">
@@ -265,39 +275,39 @@
             <v/>
           </cell>
           <cell r="B6" t="str">
-            <v>(0.000023)</v>
+            <v>(0.000026)</v>
           </cell>
           <cell r="C6" t="str">
-            <v>(0.000015)</v>
+            <v>(0.000017)</v>
           </cell>
           <cell r="D6" t="str">
-            <v>(0.000024)</v>
+            <v>(0.000026)</v>
           </cell>
           <cell r="E6" t="str">
-            <v>(0.000016)</v>
+            <v>(0.000017)</v>
           </cell>
           <cell r="F6" t="str">
-            <v>(0.000029)</v>
+            <v>(0.000032)</v>
           </cell>
           <cell r="G6" t="str">
-            <v>(0.000019)</v>
+            <v>(0.000021)</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>-0.0010***</v>
+            <v>-0.0011***</v>
           </cell>
           <cell r="C8" t="str">
-            <v>0.00098***</v>
+            <v>0.00092***</v>
           </cell>
           <cell r="D8" t="str">
-            <v>-0.00078***</v>
+            <v>-0.00082***</v>
           </cell>
           <cell r="E8" t="str">
-            <v>0.0012***</v>
+            <v>0.0011***</v>
           </cell>
           <cell r="F8" t="str">
-            <v>-0.00079***</v>
+            <v>-0.00082***</v>
           </cell>
           <cell r="G8" t="str">
             <v>0.0011***</v>
@@ -308,42 +318,42 @@
             <v/>
           </cell>
           <cell r="B9" t="str">
-            <v>(0.00000081)</v>
+            <v>(0.00000089)</v>
           </cell>
           <cell r="C9" t="str">
-            <v>(0.00000047)</v>
+            <v>(0.00000051)</v>
           </cell>
           <cell r="D9" t="str">
-            <v>(0.00000080)</v>
+            <v>(0.00000088)</v>
           </cell>
           <cell r="E9" t="str">
-            <v>(0.00000047)</v>
+            <v>(0.00000052)</v>
           </cell>
           <cell r="F9" t="str">
-            <v>(0.00000076)</v>
+            <v>(0.00000083)</v>
           </cell>
           <cell r="G9" t="str">
-            <v>(0.00000048)</v>
+            <v>(0.00000052)</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>-0.0099***</v>
+            <v>-0.0098***</v>
           </cell>
           <cell r="C11" t="str">
             <v>-0.0031***</v>
           </cell>
           <cell r="D11" t="str">
-            <v>-0.0081***</v>
+            <v>-0.0080***</v>
           </cell>
           <cell r="E11" t="str">
             <v>-0.0018***</v>
           </cell>
           <cell r="F11" t="str">
-            <v>-0.0060***</v>
+            <v>-0.0059***</v>
           </cell>
           <cell r="G11" t="str">
-            <v>-0.0015***</v>
+            <v>-0.0014***</v>
           </cell>
         </row>
         <row r="12">
@@ -351,22 +361,22 @@
             <v/>
           </cell>
           <cell r="B12" t="str">
-            <v>(0.0000045)</v>
+            <v>(0.0000050)</v>
           </cell>
           <cell r="C12" t="str">
+            <v>(0.0000017)</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>(0.0000046)</v>
+          </cell>
+          <cell r="E12" t="str">
             <v>(0.0000016)</v>
           </cell>
-          <cell r="D12" t="str">
-            <v>(0.0000042)</v>
-          </cell>
-          <cell r="E12" t="str">
-            <v>(0.0000015)</v>
-          </cell>
           <cell r="F12" t="str">
-            <v>(0.0000036)</v>
+            <v>(0.0000039)</v>
           </cell>
           <cell r="G12" t="str">
-            <v>(0.0000016)</v>
+            <v>(0.0000017)</v>
           </cell>
         </row>
         <row r="14">
@@ -374,19 +384,19 @@
             <v>-0.0012***</v>
           </cell>
           <cell r="C14" t="str">
-            <v>-0.00051***</v>
+            <v>-0.00050***</v>
           </cell>
           <cell r="D14" t="str">
             <v>-0.0013***</v>
           </cell>
           <cell r="E14" t="str">
-            <v>-0.00046***</v>
+            <v>-0.00044***</v>
           </cell>
           <cell r="F14" t="str">
             <v>-0.0014***</v>
           </cell>
           <cell r="G14" t="str">
-            <v>-0.00049***</v>
+            <v>-0.00047***</v>
           </cell>
         </row>
         <row r="15">
@@ -394,42 +404,42 @@
             <v/>
           </cell>
           <cell r="B15" t="str">
-            <v>(0.00000056)</v>
+            <v>(0.00000062)</v>
           </cell>
           <cell r="C15" t="str">
-            <v>(0.00000035)</v>
+            <v>(0.00000039)</v>
           </cell>
           <cell r="D15" t="str">
-            <v>(0.00000057)</v>
+            <v>(0.00000063)</v>
           </cell>
           <cell r="E15" t="str">
-            <v>(0.00000035)</v>
+            <v>(0.00000039)</v>
           </cell>
           <cell r="F15" t="str">
-            <v>(0.00000058)</v>
+            <v>(0.00000064)</v>
           </cell>
           <cell r="G15" t="str">
-            <v>(0.00000037)</v>
+            <v>(0.00000040)</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17" t="str">
-            <v>-0.0022***</v>
+            <v>-0.0042***</v>
           </cell>
           <cell r="C17" t="str">
-            <v>-0.0024***</v>
+            <v>-0.0031***</v>
           </cell>
           <cell r="D17" t="str">
-            <v>0.0031***</v>
+            <v>0.0015***</v>
           </cell>
           <cell r="E17" t="str">
-            <v>0.00025***</v>
+            <v>-0.00031***</v>
           </cell>
           <cell r="F17" t="str">
-            <v>0.0033***</v>
+            <v>0.0020***</v>
           </cell>
           <cell r="G17" t="str">
-            <v>0.00081***</v>
+            <v>0.00027***</v>
           </cell>
         </row>
         <row r="18">
@@ -437,22 +447,22 @@
             <v/>
           </cell>
           <cell r="B18" t="str">
-            <v>(0.0000078)</v>
+            <v>(0.0000088)</v>
           </cell>
           <cell r="C18" t="str">
-            <v>(0.0000048)</v>
+            <v>(0.0000053)</v>
           </cell>
           <cell r="D18" t="str">
-            <v>(0.0000082)</v>
+            <v>(0.0000093)</v>
           </cell>
           <cell r="E18" t="str">
-            <v>(0.0000050)</v>
+            <v>(0.0000056)</v>
           </cell>
           <cell r="F18" t="str">
-            <v>(0.0000085)</v>
+            <v>(0.0000096)</v>
           </cell>
           <cell r="G18" t="str">
-            <v>(0.0000052)</v>
+            <v>(0.0000058)</v>
           </cell>
         </row>
         <row r="20">
@@ -463,16 +473,16 @@
             <v>0.019***</v>
           </cell>
           <cell r="D20" t="str">
-            <v>0.00089***</v>
+            <v>-0.00017***</v>
           </cell>
           <cell r="E20" t="str">
-            <v>0.0055***</v>
+            <v>0.0052***</v>
           </cell>
           <cell r="F20" t="str">
+            <v>0.0037***</v>
+          </cell>
+          <cell r="G20" t="str">
             <v>0.0046***</v>
-          </cell>
-          <cell r="G20" t="str">
-            <v>0.0049***</v>
           </cell>
         </row>
         <row r="21">
@@ -480,42 +490,42 @@
             <v/>
           </cell>
           <cell r="B21" t="str">
-            <v>(0.000035)</v>
+            <v>(0.000039)</v>
           </cell>
           <cell r="C21" t="str">
-            <v>(0.000023)</v>
+            <v>(0.000025)</v>
           </cell>
           <cell r="D21" t="str">
-            <v>(0.000036)</v>
+            <v>(0.000039)</v>
           </cell>
           <cell r="E21" t="str">
-            <v>(0.000023)</v>
+            <v>(0.000025)</v>
           </cell>
           <cell r="F21" t="str">
-            <v>(0.000035)</v>
+            <v>(0.000039)</v>
           </cell>
           <cell r="G21" t="str">
-            <v>(0.000023)</v>
+            <v>(0.000025)</v>
           </cell>
         </row>
         <row r="23">
           <cell r="B23" t="str">
-            <v>-0.00025***</v>
+            <v>-0.0018***</v>
           </cell>
           <cell r="C23" t="str">
-            <v>-0.00032***</v>
+            <v>-0.0017***</v>
           </cell>
           <cell r="D23" t="str">
-            <v>0.00023***</v>
+            <v>0.00039***</v>
           </cell>
           <cell r="E23" t="str">
-            <v>0.000080***</v>
+            <v>-0.00027***</v>
           </cell>
           <cell r="F23" t="str">
-            <v>0.00023***</v>
+            <v>0.00026***</v>
           </cell>
           <cell r="G23" t="str">
-            <v>0.00012***</v>
+            <v>-0.00039***</v>
           </cell>
         </row>
         <row r="24">
@@ -523,62 +533,82 @@
             <v/>
           </cell>
           <cell r="B24" t="str">
-            <v>(0.00000059)</v>
+            <v>(0.000029)</v>
           </cell>
           <cell r="C24" t="str">
-            <v>(0.00000039)</v>
+            <v>(0.000020)</v>
           </cell>
           <cell r="D24" t="str">
-            <v>(0.0000072)</v>
+            <v>(0.000029)</v>
           </cell>
           <cell r="E24" t="str">
-            <v>(0.0000051)</v>
+            <v>(0.000020)</v>
           </cell>
           <cell r="F24" t="str">
-            <v>(0.0000071)</v>
+            <v>(0.000029)</v>
           </cell>
           <cell r="G24" t="str">
-            <v>(0.0000051)</v>
+            <v>(0.000020)</v>
           </cell>
         </row>
         <row r="26">
           <cell r="B26" t="str">
-            <v>905547541</v>
+            <v>725391177</v>
           </cell>
           <cell r="C26" t="str">
-            <v>1128366743</v>
+            <v>905722244</v>
           </cell>
           <cell r="D26" t="str">
-            <v>905547541</v>
+            <v>725391177</v>
           </cell>
           <cell r="E26" t="str">
-            <v>1128366743</v>
+            <v>905722244</v>
           </cell>
           <cell r="F26" t="str">
-            <v>905547541</v>
+            <v>725391177</v>
           </cell>
           <cell r="G26" t="str">
-            <v>1128366743</v>
+            <v>905722244</v>
           </cell>
         </row>
         <row r="27">
           <cell r="B27" t="str">
-            <v>0.882</v>
+            <v>0.033</v>
           </cell>
           <cell r="C27" t="str">
-            <v>0.936</v>
+            <v>0.013</v>
           </cell>
           <cell r="D27" t="str">
-            <v>0.057</v>
+            <v>0.056</v>
           </cell>
           <cell r="E27" t="str">
-            <v>0.036</v>
+            <v>0.034</v>
           </cell>
           <cell r="F27" t="str">
             <v>0.079</v>
           </cell>
           <cell r="G27" t="str">
-            <v>0.047</v>
+            <v>0.046</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28" t="str">
+            <v/>
+          </cell>
+          <cell r="C28" t="str">
+            <v/>
+          </cell>
+          <cell r="D28" t="str">
+            <v/>
+          </cell>
+          <cell r="E28">
+            <v>2</v>
+          </cell>
+          <cell r="F28" t="str">
+            <v/>
+          </cell>
+          <cell r="G28" t="str">
+            <v/>
           </cell>
         </row>
       </sheetData>
@@ -597,42 +627,42 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>38.079113913176677</v>
+            <v>37.6152494633156</v>
           </cell>
           <cell r="C2">
-            <v>14.810000730409991</v>
+            <v>14.77110622281711</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>9.3479404467731406</v>
+            <v>9.1161062213452428</v>
           </cell>
           <cell r="C3">
-            <v>5.7574091535268472</v>
+            <v>5.8102559107777036</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>35.049542711837432</v>
+            <v>34.908361962258347</v>
           </cell>
           <cell r="C4">
-            <v>22.62693353130787</v>
+            <v>22.739080405220999</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>1.8751238581840459</v>
+            <v>1.8834296885974939</v>
           </cell>
           <cell r="C5">
-            <v>1.6572474679347391</v>
+            <v>1.617382582492068</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7">
-            <v>16.652435777380681</v>
+            <v>7.5753216809640395E-2</v>
           </cell>
           <cell r="C7">
-            <v>21.05276804449073</v>
+            <v>0.44467726934503982</v>
           </cell>
         </row>
       </sheetData>
@@ -651,19 +681,19 @@
       <sheetData sheetId="0">
         <row r="5">
           <cell r="B5" t="str">
-            <v>0.019***</v>
+            <v>0.018***</v>
           </cell>
           <cell r="C5" t="str">
-            <v>0.025***</v>
+            <v>0.026***</v>
           </cell>
           <cell r="D5" t="str">
-            <v>0.018***</v>
+            <v>0.017***</v>
           </cell>
           <cell r="E5" t="str">
             <v>0.025***</v>
           </cell>
           <cell r="F5" t="str">
-            <v>0.0024***</v>
+            <v>0.0016***</v>
           </cell>
           <cell r="G5" t="str">
             <v>0.020***</v>
@@ -671,142 +701,142 @@
         </row>
         <row r="6">
           <cell r="B6" t="str">
-            <v>(0.000027)</v>
+            <v>(0.000031)</v>
           </cell>
           <cell r="C6" t="str">
-            <v>(0.000033)</v>
+            <v>(0.000037)</v>
           </cell>
           <cell r="D6" t="str">
-            <v>(0.000027)</v>
+            <v>(0.000030)</v>
           </cell>
           <cell r="E6" t="str">
-            <v>(0.000033)</v>
+            <v>(0.000037)</v>
           </cell>
           <cell r="F6" t="str">
-            <v>(0.000027)</v>
+            <v>(0.000030)</v>
           </cell>
           <cell r="G6" t="str">
-            <v>(0.000033)</v>
+            <v>(0.000038)</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>-0.00046***</v>
+            <v>-0.00042***</v>
           </cell>
           <cell r="C8" t="str">
-            <v>0.000016***</v>
+            <v>0.000032***</v>
           </cell>
           <cell r="D8" t="str">
-            <v>-0.00019***</v>
+            <v>-0.00017***</v>
           </cell>
           <cell r="E8" t="str">
-            <v>0.000017***</v>
+            <v>0.000062***</v>
           </cell>
           <cell r="F8" t="str">
             <v>-0.00019***</v>
           </cell>
           <cell r="G8" t="str">
-            <v>0.00036***</v>
+            <v>0.00038***</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9" t="str">
-            <v>(0.0000012)</v>
+            <v>(0.0000014)</v>
           </cell>
           <cell r="C9" t="str">
-            <v>(0.0000015)</v>
+            <v>(0.0000017)</v>
           </cell>
           <cell r="D9" t="str">
-            <v>(0.0000012)</v>
+            <v>(0.0000014)</v>
           </cell>
           <cell r="E9" t="str">
-            <v>(0.0000015)</v>
+            <v>(0.0000017)</v>
           </cell>
           <cell r="F9" t="str">
-            <v>(0.0000012)</v>
+            <v>(0.0000014)</v>
           </cell>
           <cell r="G9" t="str">
-            <v>(0.0000015)</v>
+            <v>(0.0000017)</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>0.0083***</v>
+            <v>0.0082***</v>
           </cell>
           <cell r="C11" t="str">
-            <v>0.0026***</v>
+            <v>0.0024***</v>
           </cell>
           <cell r="D11" t="str">
-            <v>0.0076***</v>
+            <v>0.0074***</v>
           </cell>
           <cell r="E11" t="str">
+            <v>0.0024***</v>
+          </cell>
+          <cell r="F11" t="str">
+            <v>0.0051***</v>
+          </cell>
+          <cell r="G11" t="str">
             <v>0.0025***</v>
-          </cell>
-          <cell r="F11" t="str">
-            <v>0.0053***</v>
-          </cell>
-          <cell r="G11" t="str">
-            <v>0.0027***</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12" t="str">
+            <v>(0.0000046)</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>(0.0000041)</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>(0.0000045)</v>
+          </cell>
+          <cell r="E12" t="str">
+            <v>(0.0000041)</v>
+          </cell>
+          <cell r="F12" t="str">
+            <v>(0.0000039)</v>
+          </cell>
+          <cell r="G12" t="str">
             <v>(0.0000042)</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>(0.0000036)</v>
-          </cell>
-          <cell r="D12" t="str">
-            <v>(0.0000041)</v>
-          </cell>
-          <cell r="E12" t="str">
-            <v>(0.0000037)</v>
-          </cell>
-          <cell r="F12" t="str">
-            <v>(0.0000036)</v>
-          </cell>
-          <cell r="G12" t="str">
-            <v>(0.0000037)</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14" t="str">
-            <v>-0.00087***</v>
+            <v>-0.00091***</v>
           </cell>
           <cell r="C14" t="str">
             <v>0.00022***</v>
           </cell>
           <cell r="D14" t="str">
-            <v>-0.00095***</v>
+            <v>-0.00099***</v>
           </cell>
           <cell r="E14" t="str">
-            <v>0.00035***</v>
+            <v>0.00036***</v>
           </cell>
           <cell r="F14" t="str">
-            <v>-0.000024***</v>
+            <v>-0.000033***</v>
           </cell>
           <cell r="G14" t="str">
-            <v>0.00028***</v>
+            <v>0.00032***</v>
           </cell>
         </row>
         <row r="15">
           <cell r="B15" t="str">
-            <v>(0.00000095)</v>
+            <v>(0.0000011)</v>
           </cell>
           <cell r="C15" t="str">
-            <v>(0.0000013)</v>
+            <v>(0.0000015)</v>
           </cell>
           <cell r="D15" t="str">
-            <v>(0.00000095)</v>
+            <v>(0.0000011)</v>
           </cell>
           <cell r="E15" t="str">
-            <v>(0.0000013)</v>
+            <v>(0.0000015)</v>
           </cell>
           <cell r="F15" t="str">
-            <v>(0.00000099)</v>
+            <v>(0.0000011)</v>
           </cell>
           <cell r="G15" t="str">
-            <v>(0.0000013)</v>
+            <v>(0.0000015)</v>
           </cell>
         </row>
         <row r="17">
@@ -814,56 +844,56 @@
             <v>0.011***</v>
           </cell>
           <cell r="C17" t="str">
-            <v>0.0075***</v>
+            <v>0.0081***</v>
           </cell>
           <cell r="D17" t="str">
-            <v>0.0089***</v>
+            <v>0.0096***</v>
           </cell>
           <cell r="E17" t="str">
-            <v>0.0050***</v>
+            <v>0.0054***</v>
           </cell>
           <cell r="F17" t="str">
+            <v>0.0059***</v>
+          </cell>
+          <cell r="G17" t="str">
             <v>0.0057***</v>
-          </cell>
-          <cell r="G17" t="str">
-            <v>0.0052***</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18" t="str">
-            <v>(0.0000079)</v>
+            <v>(0.0000090)</v>
           </cell>
           <cell r="C18" t="str">
-            <v>(0.000011)</v>
+            <v>(0.000013)</v>
           </cell>
           <cell r="D18" t="str">
-            <v>(0.0000080)</v>
+            <v>(0.0000093)</v>
           </cell>
           <cell r="E18" t="str">
-            <v>(0.000011)</v>
+            <v>(0.000013)</v>
           </cell>
           <cell r="F18" t="str">
-            <v>(0.0000079)</v>
+            <v>(0.0000091)</v>
           </cell>
           <cell r="G18" t="str">
-            <v>(0.000011)</v>
+            <v>(0.000013)</v>
           </cell>
         </row>
         <row r="20">
           <cell r="B20" t="str">
-            <v>-0.044***</v>
+            <v>-0.043***</v>
           </cell>
           <cell r="C20" t="str">
-            <v>-0.062***</v>
+            <v>-0.061***</v>
           </cell>
           <cell r="D20" t="str">
-            <v>-0.033***</v>
+            <v>-0.031***</v>
           </cell>
           <cell r="E20" t="str">
-            <v>-0.058***</v>
+            <v>-0.057***</v>
           </cell>
           <cell r="F20" t="str">
-            <v>-0.042***</v>
+            <v>-0.041***</v>
           </cell>
           <cell r="G20" t="str">
             <v>-0.053***</v>
@@ -871,90 +901,90 @@
         </row>
         <row r="21">
           <cell r="B21" t="str">
-            <v>(0.000064)</v>
+            <v>(0.000070)</v>
           </cell>
           <cell r="C21" t="str">
-            <v>(0.000094)</v>
+            <v>(0.00010)</v>
           </cell>
           <cell r="D21" t="str">
-            <v>(0.000062)</v>
+            <v>(0.000069)</v>
           </cell>
           <cell r="E21" t="str">
-            <v>(0.000093)</v>
+            <v>(0.00010)</v>
           </cell>
           <cell r="F21" t="str">
-            <v>(0.000061)</v>
+            <v>(0.000067)</v>
           </cell>
           <cell r="G21" t="str">
-            <v>(0.000092)</v>
+            <v>(0.00010)</v>
           </cell>
         </row>
         <row r="23">
           <cell r="B23" t="str">
-            <v>0.00017***</v>
+            <v>-0.0012***</v>
           </cell>
           <cell r="C23" t="str">
-            <v>-0.00016***</v>
+            <v>0.00067***</v>
           </cell>
           <cell r="D23" t="str">
-            <v>0.00023***</v>
+            <v>-0.0026***</v>
           </cell>
           <cell r="E23" t="str">
-            <v>0.00012***</v>
+            <v>-0.0027***</v>
           </cell>
           <cell r="F23" t="str">
-            <v>0.00018***</v>
+            <v>-0.0022***</v>
           </cell>
           <cell r="G23" t="str">
-            <v>0.000031***</v>
+            <v>-0.0029***</v>
           </cell>
         </row>
         <row r="24">
           <cell r="B24" t="str">
-            <v>(0.00000058)</v>
+            <v>(0.000038)</v>
           </cell>
           <cell r="C24" t="str">
-            <v>(0.00000073)</v>
+            <v>(0.000047)</v>
           </cell>
           <cell r="D24" t="str">
-            <v>(0.0000074)</v>
+            <v>(0.000039)</v>
           </cell>
           <cell r="E24" t="str">
-            <v>(0.0000087)</v>
+            <v>(0.000048)</v>
           </cell>
           <cell r="F24" t="str">
-            <v>(0.0000073)</v>
+            <v>(0.000038)</v>
           </cell>
           <cell r="G24" t="str">
-            <v>(0.0000086)</v>
+            <v>(0.000048)</v>
           </cell>
         </row>
         <row r="26">
           <cell r="B26" t="str">
-            <v>724652470</v>
+            <v>573058893</v>
           </cell>
           <cell r="C26" t="str">
-            <v>488250930</v>
+            <v>381956553</v>
           </cell>
           <cell r="D26" t="str">
-            <v>724652470</v>
+            <v>573058893</v>
           </cell>
           <cell r="E26" t="str">
-            <v>488250930</v>
+            <v>381956553</v>
           </cell>
           <cell r="F26" t="str">
-            <v>724652470</v>
+            <v>573058893</v>
           </cell>
           <cell r="G26" t="str">
-            <v>488250930</v>
+            <v>381956553</v>
           </cell>
         </row>
         <row r="27">
           <cell r="B27" t="str">
-            <v>0.856</v>
+            <v>0.023</v>
           </cell>
           <cell r="C27" t="str">
-            <v>0.858</v>
+            <v>0.005</v>
           </cell>
           <cell r="D27" t="str">
             <v>0.054</v>
@@ -963,10 +993,30 @@
             <v>0.034</v>
           </cell>
           <cell r="F27" t="str">
-            <v>0.097</v>
+            <v>0.098</v>
           </cell>
           <cell r="G27" t="str">
-            <v>0.057</v>
+            <v>0.058</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28" t="str">
+            <v/>
+          </cell>
+          <cell r="C28" t="str">
+            <v/>
+          </cell>
+          <cell r="D28" t="str">
+            <v/>
+          </cell>
+          <cell r="E28" t="str">
+            <v/>
+          </cell>
+          <cell r="F28" t="str">
+            <v/>
+          </cell>
+          <cell r="G28" t="str">
+            <v/>
           </cell>
         </row>
       </sheetData>
@@ -1272,10 +1322,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEC10B3-B1E9-4AFC-87BE-806AE62A0BA1}">
-  <dimension ref="A2:I43"/>
+  <dimension ref="A2:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I42" sqref="A2:I42"/>
+      <selection activeCell="C25" sqref="C25:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1288,27 +1338,27 @@
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="C2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="G3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="C3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="G3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
@@ -1316,20 +1366,20 @@
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I4" s="6" t="str">
         <f>[1]transition_prob_reg_inf!G2</f>
@@ -1342,11 +1392,11 @@
       </c>
       <c r="C5" s="1" t="str">
         <f>[1]transition_prob_reg_inf!B5</f>
-        <v>0.0056***</v>
+        <v>0.0046***</v>
       </c>
       <c r="D5" s="1" t="str">
         <f>[1]transition_prob_reg_inf!D5</f>
-        <v>0.014***</v>
+        <v>0.013***</v>
       </c>
       <c r="E5" s="1" t="str">
         <f>[1]transition_prob_reg_inf!F5</f>
@@ -1354,7 +1404,7 @@
       </c>
       <c r="G5" s="1" t="str">
         <f>[1]transition_prob_reg_inf!C5</f>
-        <v>0.0077***</v>
+        <v>0.0071***</v>
       </c>
       <c r="H5" s="1" t="str">
         <f>[1]transition_prob_reg_inf!E5</f>
@@ -1362,7 +1412,7 @@
       </c>
       <c r="I5" s="1" t="str">
         <f>[1]transition_prob_reg_inf!G5</f>
-        <v>0.0067***</v>
+        <v>0.0066***</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -1372,56 +1422,56 @@
       </c>
       <c r="C6" s="1" t="str">
         <f>[1]transition_prob_reg_inf!B6</f>
-        <v>(0.000023)</v>
+        <v>(0.000026)</v>
       </c>
       <c r="D6" s="1" t="str">
         <f>[1]transition_prob_reg_inf!D6</f>
-        <v>(0.000024)</v>
+        <v>(0.000026)</v>
       </c>
       <c r="E6" s="1" t="str">
         <f>[1]transition_prob_reg_inf!F6</f>
-        <v>(0.000029)</v>
+        <v>(0.000032)</v>
       </c>
       <c r="G6" s="1" t="str">
         <f>[1]transition_prob_reg_inf!C6</f>
-        <v>(0.000015)</v>
+        <v>(0.000017)</v>
       </c>
       <c r="H6" s="1" t="str">
         <f>[1]transition_prob_reg_inf!E6</f>
-        <v>(0.000016)</v>
+        <v>(0.000017)</v>
       </c>
       <c r="I6" s="1" t="str">
         <f>[1]transition_prob_reg_inf!G6</f>
-        <v>(0.000019)</v>
+        <v>(0.000021)</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1">
         <f>ROUND([2]meanvardeps!B2,2)</f>
-        <v>38.08</v>
+        <v>37.619999999999997</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>[1]transition_prob_reg_inf!B8</f>
-        <v>-0.0010***</v>
+        <v>-0.0011***</v>
       </c>
       <c r="D7" s="1" t="str">
         <f>[1]transition_prob_reg_inf!D8</f>
-        <v>-0.00078***</v>
+        <v>-0.00082***</v>
       </c>
       <c r="E7" s="1" t="str">
         <f>[1]transition_prob_reg_inf!F8</f>
-        <v>-0.00079***</v>
+        <v>-0.00082***</v>
       </c>
       <c r="G7" s="1" t="str">
         <f>[1]transition_prob_reg_inf!C8</f>
-        <v>0.00098***</v>
+        <v>0.00092***</v>
       </c>
       <c r="H7" s="1" t="str">
         <f>[1]transition_prob_reg_inf!E8</f>
-        <v>0.0012***</v>
+        <v>0.0011***</v>
       </c>
       <c r="I7" s="1" t="str">
         <f>[1]transition_prob_reg_inf!G8</f>
@@ -1435,52 +1485,52 @@
       </c>
       <c r="B8" s="1" t="str">
         <f>CONCATENATE("(",ROUND([2]meanvardeps!C2,2),")")</f>
-        <v>(14.81)</v>
+        <v>(14.77)</v>
       </c>
       <c r="C8" s="1" t="str">
         <f>[1]transition_prob_reg_inf!B9</f>
-        <v>(0.00000081)</v>
+        <v>(0.00000089)</v>
       </c>
       <c r="D8" s="1" t="str">
         <f>[1]transition_prob_reg_inf!D9</f>
-        <v>(0.00000080)</v>
+        <v>(0.00000088)</v>
       </c>
       <c r="E8" s="1" t="str">
         <f>[1]transition_prob_reg_inf!F9</f>
-        <v>(0.00000076)</v>
+        <v>(0.00000083)</v>
       </c>
       <c r="G8" s="1" t="str">
         <f>[1]transition_prob_reg_inf!C9</f>
-        <v>(0.00000047)</v>
+        <v>(0.00000051)</v>
       </c>
       <c r="H8" s="1" t="str">
         <f>[1]transition_prob_reg_inf!E9</f>
-        <v>(0.00000047)</v>
+        <v>(0.00000052)</v>
       </c>
       <c r="I8" s="1" t="str">
         <f>[1]transition_prob_reg_inf!G9</f>
-        <v>(0.00000048)</v>
+        <v>(0.00000052)</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1">
         <f>ROUND([2]meanvardeps!B3,2)</f>
-        <v>9.35</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="C9" s="1" t="str">
         <f>[1]transition_prob_reg_inf!B11</f>
-        <v>-0.0099***</v>
+        <v>-0.0098***</v>
       </c>
       <c r="D9" s="1" t="str">
         <f>[1]transition_prob_reg_inf!D11</f>
-        <v>-0.0081***</v>
+        <v>-0.0080***</v>
       </c>
       <c r="E9" s="1" t="str">
         <f>[1]transition_prob_reg_inf!F11</f>
-        <v>-0.0060***</v>
+        <v>-0.0059***</v>
       </c>
       <c r="G9" s="1" t="str">
         <f>[1]transition_prob_reg_inf!C11</f>
@@ -1492,7 +1542,7 @@
       </c>
       <c r="I9" s="1" t="str">
         <f>[1]transition_prob_reg_inf!G11</f>
-        <v>-0.0015***</v>
+        <v>-0.0014***</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -1502,40 +1552,40 @@
       </c>
       <c r="B10" s="1" t="str">
         <f>CONCATENATE("(",ROUND([2]meanvardeps!C3,2),")")</f>
-        <v>(5.76)</v>
+        <v>(5.81)</v>
       </c>
       <c r="C10" s="1" t="str">
         <f>[1]transition_prob_reg_inf!B12</f>
-        <v>(0.0000045)</v>
+        <v>(0.0000050)</v>
       </c>
       <c r="D10" s="1" t="str">
         <f>[1]transition_prob_reg_inf!D12</f>
-        <v>(0.0000042)</v>
+        <v>(0.0000046)</v>
       </c>
       <c r="E10" s="1" t="str">
         <f>[1]transition_prob_reg_inf!F12</f>
-        <v>(0.0000036)</v>
+        <v>(0.0000039)</v>
       </c>
       <c r="G10" s="1" t="str">
         <f>[1]transition_prob_reg_inf!C12</f>
-        <v>(0.0000016)</v>
+        <v>(0.0000017)</v>
       </c>
       <c r="H10" s="1" t="str">
         <f>[1]transition_prob_reg_inf!E12</f>
-        <v>(0.0000015)</v>
+        <v>(0.0000016)</v>
       </c>
       <c r="I10" s="1" t="str">
         <f>[1]transition_prob_reg_inf!G12</f>
-        <v>(0.0000016)</v>
+        <v>(0.0000017)</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1">
         <f>ROUND([2]meanvardeps!B4,2)</f>
-        <v>35.049999999999997</v>
+        <v>34.909999999999997</v>
       </c>
       <c r="C11" s="1" t="str">
         <f>[1]transition_prob_reg_inf!B14</f>
@@ -1551,15 +1601,15 @@
       </c>
       <c r="G11" s="1" t="str">
         <f>[1]transition_prob_reg_inf!C14</f>
-        <v>-0.00051***</v>
+        <v>-0.00050***</v>
       </c>
       <c r="H11" s="1" t="str">
         <f>[1]transition_prob_reg_inf!E14</f>
-        <v>-0.00046***</v>
+        <v>-0.00044***</v>
       </c>
       <c r="I11" s="1" t="str">
         <f>[1]transition_prob_reg_inf!G14</f>
-        <v>-0.00049***</v>
+        <v>-0.00047***</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -1569,36 +1619,36 @@
       </c>
       <c r="B12" s="1" t="str">
         <f>CONCATENATE("(",ROUND([2]meanvardeps!C4,2),")")</f>
-        <v>(22.63)</v>
+        <v>(22.74)</v>
       </c>
       <c r="C12" s="1" t="str">
         <f>[1]transition_prob_reg_inf!B15</f>
-        <v>(0.00000056)</v>
+        <v>(0.00000062)</v>
       </c>
       <c r="D12" s="1" t="str">
         <f>[1]transition_prob_reg_inf!D15</f>
-        <v>(0.00000057)</v>
+        <v>(0.00000063)</v>
       </c>
       <c r="E12" s="1" t="str">
         <f>[1]transition_prob_reg_inf!F15</f>
-        <v>(0.00000058)</v>
+        <v>(0.00000064)</v>
       </c>
       <c r="G12" s="1" t="str">
         <f>[1]transition_prob_reg_inf!C15</f>
-        <v>(0.00000035)</v>
+        <v>(0.00000039)</v>
       </c>
       <c r="H12" s="1" t="str">
         <f>[1]transition_prob_reg_inf!E15</f>
-        <v>(0.00000035)</v>
+        <v>(0.00000039)</v>
       </c>
       <c r="I12" s="1" t="str">
         <f>[1]transition_prob_reg_inf!G15</f>
-        <v>(0.00000037)</v>
+        <v>(0.00000040)</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B13" s="1">
         <f>ROUND([2]meanvardeps!B5,2)</f>
@@ -1606,27 +1656,27 @@
       </c>
       <c r="C13" s="1" t="str">
         <f>[1]transition_prob_reg_inf!B17</f>
-        <v>-0.0022***</v>
+        <v>-0.0042***</v>
       </c>
       <c r="D13" s="1" t="str">
         <f>[1]transition_prob_reg_inf!D17</f>
-        <v>0.0031***</v>
+        <v>0.0015***</v>
       </c>
       <c r="E13" s="1" t="str">
         <f>[1]transition_prob_reg_inf!F17</f>
-        <v>0.0033***</v>
+        <v>0.0020***</v>
       </c>
       <c r="G13" s="1" t="str">
         <f>[1]transition_prob_reg_inf!C17</f>
-        <v>-0.0024***</v>
+        <v>-0.0031***</v>
       </c>
       <c r="H13" s="1" t="str">
         <f>[1]transition_prob_reg_inf!E17</f>
-        <v>0.00025***</v>
+        <v>-0.00031***</v>
       </c>
       <c r="I13" s="1" t="str">
         <f>[1]transition_prob_reg_inf!G17</f>
-        <v>0.00081***</v>
+        <v>0.00027***</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -1636,36 +1686,36 @@
       </c>
       <c r="B14" s="1" t="str">
         <f>CONCATENATE("(",ROUND([2]meanvardeps!C5,2),")")</f>
-        <v>(1.66)</v>
+        <v>(1.62)</v>
       </c>
       <c r="C14" s="1" t="str">
         <f>[1]transition_prob_reg_inf!B18</f>
-        <v>(0.0000078)</v>
+        <v>(0.0000088)</v>
       </c>
       <c r="D14" s="1" t="str">
         <f>[1]transition_prob_reg_inf!D18</f>
-        <v>(0.0000082)</v>
+        <v>(0.0000093)</v>
       </c>
       <c r="E14" s="1" t="str">
         <f>[1]transition_prob_reg_inf!F18</f>
-        <v>(0.0000085)</v>
+        <v>(0.0000096)</v>
       </c>
       <c r="G14" s="1" t="str">
         <f>[1]transition_prob_reg_inf!C18</f>
-        <v>(0.0000048)</v>
+        <v>(0.0000053)</v>
       </c>
       <c r="H14" s="1" t="str">
         <f>[1]transition_prob_reg_inf!E18</f>
-        <v>(0.0000050)</v>
+        <v>(0.0000056)</v>
       </c>
       <c r="I14" s="1" t="str">
         <f>[1]transition_prob_reg_inf!G18</f>
-        <v>(0.0000052)</v>
+        <v>(0.0000058)</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C15" s="1" t="str">
         <f>[1]transition_prob_reg_inf!B20</f>
@@ -1673,11 +1723,11 @@
       </c>
       <c r="D15" s="1" t="str">
         <f>[1]transition_prob_reg_inf!D20</f>
-        <v>0.00089***</v>
+        <v>-0.00017***</v>
       </c>
       <c r="E15" s="1" t="str">
         <f>[1]transition_prob_reg_inf!F20</f>
-        <v>0.0046***</v>
+        <v>0.0037***</v>
       </c>
       <c r="G15" s="1" t="str">
         <f>[1]transition_prob_reg_inf!C20</f>
@@ -1685,11 +1735,11 @@
       </c>
       <c r="H15" s="1" t="str">
         <f>[1]transition_prob_reg_inf!E20</f>
-        <v>0.0055***</v>
+        <v>0.0052***</v>
       </c>
       <c r="I15" s="1" t="str">
         <f>[1]transition_prob_reg_inf!G20</f>
-        <v>0.0049***</v>
+        <v>0.0046***</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -1699,60 +1749,60 @@
       </c>
       <c r="C16" s="1" t="str">
         <f>[1]transition_prob_reg_inf!B21</f>
-        <v>(0.000035)</v>
+        <v>(0.000039)</v>
       </c>
       <c r="D16" s="1" t="str">
         <f>[1]transition_prob_reg_inf!D21</f>
-        <v>(0.000036)</v>
+        <v>(0.000039)</v>
       </c>
       <c r="E16" s="1" t="str">
         <f>[1]transition_prob_reg_inf!F21</f>
-        <v>(0.000035)</v>
+        <v>(0.000039)</v>
       </c>
       <c r="G16" s="1" t="str">
         <f>[1]transition_prob_reg_inf!C21</f>
-        <v>(0.000023)</v>
+        <v>(0.000025)</v>
       </c>
       <c r="H16" s="1" t="str">
         <f>[1]transition_prob_reg_inf!E21</f>
-        <v>(0.000023)</v>
+        <v>(0.000025)</v>
       </c>
       <c r="I16" s="1" t="str">
         <f>[1]transition_prob_reg_inf!G21</f>
-        <v>(0.000023)</v>
+        <v>(0.000025)</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1">
         <f>ROUND([2]meanvardeps!B7,2)</f>
-        <v>16.649999999999999</v>
+        <v>0.08</v>
       </c>
       <c r="C17" s="1" t="str">
         <f>[1]transition_prob_reg_inf!B23</f>
-        <v>-0.00025***</v>
+        <v>-0.0018***</v>
       </c>
       <c r="D17" s="1" t="str">
         <f>[1]transition_prob_reg_inf!D23</f>
-        <v>0.00023***</v>
+        <v>0.00039***</v>
       </c>
       <c r="E17" s="1" t="str">
         <f>[1]transition_prob_reg_inf!F23</f>
-        <v>0.00023***</v>
+        <v>0.00026***</v>
       </c>
       <c r="G17" s="1" t="str">
         <f>[1]transition_prob_reg_inf!C23</f>
-        <v>-0.00032***</v>
+        <v>-0.0017***</v>
       </c>
       <c r="H17" s="1" t="str">
         <f>[1]transition_prob_reg_inf!E23</f>
-        <v>0.000080***</v>
+        <v>-0.00027***</v>
       </c>
       <c r="I17" s="1" t="str">
         <f>[1]transition_prob_reg_inf!G23</f>
-        <v>0.00012***</v>
+        <v>-0.00039***</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -1762,31 +1812,31 @@
       </c>
       <c r="B18" s="1" t="str">
         <f>CONCATENATE("(",ROUND([2]meanvardeps!C7,2),")")</f>
-        <v>(21.05)</v>
+        <v>(0.44)</v>
       </c>
       <c r="C18" s="1" t="str">
         <f>[1]transition_prob_reg_inf!B24</f>
-        <v>(0.00000059)</v>
+        <v>(0.000029)</v>
       </c>
       <c r="D18" s="1" t="str">
         <f>[1]transition_prob_reg_inf!D24</f>
-        <v>(0.0000072)</v>
+        <v>(0.000029)</v>
       </c>
       <c r="E18" s="1" t="str">
         <f>[1]transition_prob_reg_inf!F24</f>
-        <v>(0.0000071)</v>
+        <v>(0.000029)</v>
       </c>
       <c r="G18" s="1" t="str">
         <f>[1]transition_prob_reg_inf!C24</f>
-        <v>(0.00000039)</v>
+        <v>(0.000020)</v>
       </c>
       <c r="H18" s="1" t="str">
         <f>[1]transition_prob_reg_inf!E24</f>
-        <v>(0.0000051)</v>
+        <v>(0.000020)</v>
       </c>
       <c r="I18" s="1" t="str">
         <f>[1]transition_prob_reg_inf!G24</f>
-        <v>(0.0000051)</v>
+        <v>(0.000020)</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -1795,653 +1845,709 @@
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8" t="str">
-        <f>[1]transition_prob_reg_inf!B26</f>
-        <v>905547541</v>
+        <f>[1]transition_prob_reg_inf!B28</f>
+        <v/>
       </c>
       <c r="D20" s="8" t="str">
-        <f>[1]transition_prob_reg_inf!D26</f>
-        <v>905547541</v>
+        <f>[1]transition_prob_reg_inf!D28</f>
+        <v/>
       </c>
       <c r="E20" s="8" t="str">
-        <f>[1]transition_prob_reg_inf!F26</f>
-        <v>905547541</v>
+        <f>[1]transition_prob_reg_inf!F28</f>
+        <v/>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8" t="str">
+        <f>[1]transition_prob_reg_inf!C28</f>
+        <v/>
+      </c>
+      <c r="H20" s="8">
+        <f>[1]transition_prob_reg_inf!E28</f>
+        <v>2</v>
+      </c>
+      <c r="I20" s="8" t="str">
+        <f>[1]transition_prob_reg_inf!G28</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11" t="str">
+        <f>[1]transition_prob_reg_inf!B26</f>
+        <v>725391177</v>
+      </c>
+      <c r="D21" s="11" t="str">
+        <f>[1]transition_prob_reg_inf!D26</f>
+        <v>725391177</v>
+      </c>
+      <c r="E21" s="11" t="str">
+        <f>[1]transition_prob_reg_inf!F26</f>
+        <v>725391177</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11" t="str">
         <f>[1]transition_prob_reg_inf!C26</f>
-        <v>1128366743</v>
-      </c>
-      <c r="H20" s="8" t="str">
+        <v>905722244</v>
+      </c>
+      <c r="H21" s="11" t="str">
         <f>[1]transition_prob_reg_inf!E26</f>
-        <v>1128366743</v>
-      </c>
-      <c r="I20" s="8" t="str">
+        <v>905722244</v>
+      </c>
+      <c r="I21" s="11" t="str">
         <f>[1]transition_prob_reg_inf!G26</f>
-        <v>1128366743</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="5" t="s">
+        <v>905722244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6" t="str">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6" t="str">
         <f>[1]transition_prob_reg_inf!B27</f>
-        <v>0.882</v>
-      </c>
-      <c r="D21" s="6" t="str">
+        <v>0.033</v>
+      </c>
+      <c r="D22" s="6" t="str">
         <f>[1]transition_prob_reg_inf!D27</f>
-        <v>0.057</v>
-      </c>
-      <c r="E21" s="6" t="str">
+        <v>0.056</v>
+      </c>
+      <c r="E22" s="6" t="str">
         <f>[1]transition_prob_reg_inf!F27</f>
         <v>0.079</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6" t="str">
+      <c r="F22" s="6"/>
+      <c r="G22" s="6" t="str">
         <f>[1]transition_prob_reg_inf!C27</f>
-        <v>0.936</v>
-      </c>
-      <c r="H21" s="6" t="str">
+        <v>0.013</v>
+      </c>
+      <c r="H22" s="6" t="str">
         <f>[1]transition_prob_reg_inf!E27</f>
-        <v>0.036</v>
-      </c>
-      <c r="I21" s="6" t="str">
+        <v>0.034</v>
+      </c>
+      <c r="I22" s="6" t="str">
         <f>[1]transition_prob_reg_inf!G27</f>
-        <v>0.047</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="2"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="10" t="s">
+        <v>0.046</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+    </row>
+    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="2"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C26" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="G26" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+    </row>
+    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C24" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="G24" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-    </row>
-    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="9" t="s">
+      <c r="I27" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+    </row>
+    <row r="28" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>3</v>
       </c>
-      <c r="C26" t="str">
+      <c r="C28" t="str">
         <f>[3]transition_prob_reg_for!B5</f>
-        <v>0.019***</v>
-      </c>
-      <c r="D26" t="str">
+        <v>0.018***</v>
+      </c>
+      <c r="D28" t="str">
         <f>[3]transition_prob_reg_for!D5</f>
-        <v>0.018***</v>
-      </c>
-      <c r="E26" t="str">
+        <v>0.017***</v>
+      </c>
+      <c r="E28" t="str">
         <f>[3]transition_prob_reg_for!F5</f>
-        <v>0.0024***</v>
-      </c>
-      <c r="F26"/>
-      <c r="G26" t="str">
+        <v>0.0016***</v>
+      </c>
+      <c r="F28"/>
+      <c r="G28" t="str">
         <f>[3]transition_prob_reg_for!C5</f>
-        <v>0.025***</v>
-      </c>
-      <c r="H26" t="str">
+        <v>0.026***</v>
+      </c>
+      <c r="H28" t="str">
         <f>[3]transition_prob_reg_for!E5</f>
         <v>0.025***</v>
       </c>
-      <c r="I26" t="str">
+      <c r="I28" t="str">
         <f>[3]transition_prob_reg_for!G5</f>
         <v>0.020***</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" t="str">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="str">
         <f>[3]transition_prob_reg_for!B6</f>
-        <v>(0.000027)</v>
-      </c>
-      <c r="D27" t="str">
+        <v>(0.000031)</v>
+      </c>
+      <c r="D29" t="str">
         <f>[3]transition_prob_reg_for!D6</f>
-        <v>(0.000027)</v>
-      </c>
-      <c r="E27" t="str">
+        <v>(0.000030)</v>
+      </c>
+      <c r="E29" t="str">
         <f>[3]transition_prob_reg_for!F6</f>
-        <v>(0.000027)</v>
-      </c>
-      <c r="F27"/>
-      <c r="G27" t="str">
+        <v>(0.000030)</v>
+      </c>
+      <c r="F29"/>
+      <c r="G29" t="str">
         <f>[3]transition_prob_reg_for!C6</f>
-        <v>(0.000033)</v>
-      </c>
-      <c r="H27" t="str">
+        <v>(0.000037)</v>
+      </c>
+      <c r="H29" t="str">
         <f>[3]transition_prob_reg_for!E6</f>
-        <v>(0.000033)</v>
-      </c>
-      <c r="I27" t="str">
+        <v>(0.000037)</v>
+      </c>
+      <c r="I29" t="str">
         <f>[3]transition_prob_reg_for!G6</f>
-        <v>(0.000033)</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="1">
-        <f t="shared" ref="B28:B39" si="0">B7</f>
-        <v>38.08</v>
-      </c>
-      <c r="C28" t="str">
+        <v>(0.000038)</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" ref="B30:B41" si="0">B7</f>
+        <v>37.619999999999997</v>
+      </c>
+      <c r="C30" t="str">
         <f>[3]transition_prob_reg_for!B8</f>
-        <v>-0.00046***</v>
-      </c>
-      <c r="D28" t="str">
+        <v>-0.00042***</v>
+      </c>
+      <c r="D30" t="str">
         <f>[3]transition_prob_reg_for!D8</f>
-        <v>-0.00019***</v>
-      </c>
-      <c r="E28" t="str">
+        <v>-0.00017***</v>
+      </c>
+      <c r="E30" t="str">
         <f>[3]transition_prob_reg_for!F8</f>
         <v>-0.00019***</v>
       </c>
-      <c r="F28"/>
-      <c r="G28" t="str">
-        <f>[3]transition_prob_reg_for!C8</f>
-        <v>0.000016***</v>
-      </c>
-      <c r="H28" t="str">
-        <f>[3]transition_prob_reg_for!E8</f>
-        <v>0.000017***</v>
-      </c>
-      <c r="I28" t="str">
-        <f>[3]transition_prob_reg_for!G8</f>
-        <v>0.00036***</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>(14.81)</v>
-      </c>
-      <c r="C29" t="str">
-        <f>[3]transition_prob_reg_for!B9</f>
-        <v>(0.0000012)</v>
-      </c>
-      <c r="D29" t="str">
-        <f>[3]transition_prob_reg_for!D9</f>
-        <v>(0.0000012)</v>
-      </c>
-      <c r="E29" t="str">
-        <f>[3]transition_prob_reg_for!F9</f>
-        <v>(0.0000012)</v>
-      </c>
-      <c r="F29"/>
-      <c r="G29" t="str">
-        <f>[3]transition_prob_reg_for!C9</f>
-        <v>(0.0000015)</v>
-      </c>
-      <c r="H29" t="str">
-        <f>[3]transition_prob_reg_for!E9</f>
-        <v>(0.0000015)</v>
-      </c>
-      <c r="I29" t="str">
-        <f>[3]transition_prob_reg_for!G9</f>
-        <v>(0.0000015)</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="1">
-        <f t="shared" si="0"/>
-        <v>9.35</v>
-      </c>
-      <c r="C30" t="str">
-        <f>[3]transition_prob_reg_for!B11</f>
-        <v>0.0083***</v>
-      </c>
-      <c r="D30" t="str">
-        <f>[3]transition_prob_reg_for!D11</f>
-        <v>0.0076***</v>
-      </c>
-      <c r="E30" t="str">
-        <f>[3]transition_prob_reg_for!F11</f>
-        <v>0.0053***</v>
-      </c>
       <c r="F30"/>
       <c r="G30" t="str">
-        <f>[3]transition_prob_reg_for!C11</f>
-        <v>0.0026***</v>
+        <f>[3]transition_prob_reg_for!C8</f>
+        <v>0.000032***</v>
       </c>
       <c r="H30" t="str">
-        <f>[3]transition_prob_reg_for!E11</f>
-        <v>0.0025***</v>
+        <f>[3]transition_prob_reg_for!E8</f>
+        <v>0.000062***</v>
       </c>
       <c r="I30" t="str">
-        <f>[3]transition_prob_reg_for!G11</f>
-        <v>0.0027***</v>
+        <f>[3]transition_prob_reg_for!G8</f>
+        <v>0.00038***</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>17</v>
-      </c>
       <c r="B31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>(5.76)</v>
+        <v>(14.77)</v>
       </c>
       <c r="C31" t="str">
-        <f>[3]transition_prob_reg_for!B12</f>
-        <v>(0.0000042)</v>
+        <f>[3]transition_prob_reg_for!B9</f>
+        <v>(0.0000014)</v>
       </c>
       <c r="D31" t="str">
-        <f>[3]transition_prob_reg_for!D12</f>
-        <v>(0.0000041)</v>
+        <f>[3]transition_prob_reg_for!D9</f>
+        <v>(0.0000014)</v>
       </c>
       <c r="E31" t="str">
-        <f>[3]transition_prob_reg_for!F12</f>
-        <v>(0.0000036)</v>
+        <f>[3]transition_prob_reg_for!F9</f>
+        <v>(0.0000014)</v>
       </c>
       <c r="F31"/>
       <c r="G31" t="str">
-        <f>[3]transition_prob_reg_for!C12</f>
-        <v>(0.0000036)</v>
+        <f>[3]transition_prob_reg_for!C9</f>
+        <v>(0.0000017)</v>
       </c>
       <c r="H31" t="str">
-        <f>[3]transition_prob_reg_for!E12</f>
-        <v>(0.0000037)</v>
+        <f>[3]transition_prob_reg_for!E9</f>
+        <v>(0.0000017)</v>
       </c>
       <c r="I31" t="str">
-        <f>[3]transition_prob_reg_for!G12</f>
-        <v>(0.0000037)</v>
+        <f>[3]transition_prob_reg_for!G9</f>
+        <v>(0.0000017)</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B32" s="1">
         <f t="shared" si="0"/>
-        <v>35.049999999999997</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="C32" t="str">
-        <f>[3]transition_prob_reg_for!B14</f>
-        <v>-0.00087***</v>
+        <f>[3]transition_prob_reg_for!B11</f>
+        <v>0.0082***</v>
       </c>
       <c r="D32" t="str">
-        <f>[3]transition_prob_reg_for!D14</f>
-        <v>-0.00095***</v>
+        <f>[3]transition_prob_reg_for!D11</f>
+        <v>0.0074***</v>
       </c>
       <c r="E32" t="str">
-        <f>[3]transition_prob_reg_for!F14</f>
-        <v>-0.000024***</v>
+        <f>[3]transition_prob_reg_for!F11</f>
+        <v>0.0051***</v>
       </c>
       <c r="F32"/>
       <c r="G32" t="str">
+        <f>[3]transition_prob_reg_for!C11</f>
+        <v>0.0024***</v>
+      </c>
+      <c r="H32" t="str">
+        <f>[3]transition_prob_reg_for!E11</f>
+        <v>0.0024***</v>
+      </c>
+      <c r="I32" t="str">
+        <f>[3]transition_prob_reg_for!G11</f>
+        <v>0.0025***</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>(5.81)</v>
+      </c>
+      <c r="C33" t="str">
+        <f>[3]transition_prob_reg_for!B12</f>
+        <v>(0.0000046)</v>
+      </c>
+      <c r="D33" t="str">
+        <f>[3]transition_prob_reg_for!D12</f>
+        <v>(0.0000045)</v>
+      </c>
+      <c r="E33" t="str">
+        <f>[3]transition_prob_reg_for!F12</f>
+        <v>(0.0000039)</v>
+      </c>
+      <c r="F33"/>
+      <c r="G33" t="str">
+        <f>[3]transition_prob_reg_for!C12</f>
+        <v>(0.0000041)</v>
+      </c>
+      <c r="H33" t="str">
+        <f>[3]transition_prob_reg_for!E12</f>
+        <v>(0.0000041)</v>
+      </c>
+      <c r="I33" t="str">
+        <f>[3]transition_prob_reg_for!G12</f>
+        <v>(0.0000042)</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="1">
+        <f t="shared" si="0"/>
+        <v>34.909999999999997</v>
+      </c>
+      <c r="C34" t="str">
+        <f>[3]transition_prob_reg_for!B14</f>
+        <v>-0.00091***</v>
+      </c>
+      <c r="D34" t="str">
+        <f>[3]transition_prob_reg_for!D14</f>
+        <v>-0.00099***</v>
+      </c>
+      <c r="E34" t="str">
+        <f>[3]transition_prob_reg_for!F14</f>
+        <v>-0.000033***</v>
+      </c>
+      <c r="F34"/>
+      <c r="G34" t="str">
         <f>[3]transition_prob_reg_for!C14</f>
         <v>0.00022***</v>
       </c>
-      <c r="H32" t="str">
+      <c r="H34" t="str">
         <f>[3]transition_prob_reg_for!E14</f>
-        <v>0.00035***</v>
-      </c>
-      <c r="I32" t="str">
+        <v>0.00036***</v>
+      </c>
+      <c r="I34" t="str">
         <f>[3]transition_prob_reg_for!G14</f>
-        <v>0.00028***</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="1" t="str">
+        <v>0.00032***</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B35" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>(22.63)</v>
-      </c>
-      <c r="C33" t="str">
+        <v>(22.74)</v>
+      </c>
+      <c r="C35" t="str">
         <f>[3]transition_prob_reg_for!B15</f>
-        <v>(0.00000095)</v>
-      </c>
-      <c r="D33" t="str">
+        <v>(0.0000011)</v>
+      </c>
+      <c r="D35" t="str">
         <f>[3]transition_prob_reg_for!D15</f>
-        <v>(0.00000095)</v>
-      </c>
-      <c r="E33" t="str">
+        <v>(0.0000011)</v>
+      </c>
+      <c r="E35" t="str">
         <f>[3]transition_prob_reg_for!F15</f>
-        <v>(0.00000099)</v>
-      </c>
-      <c r="F33"/>
-      <c r="G33" t="str">
+        <v>(0.0000011)</v>
+      </c>
+      <c r="F35"/>
+      <c r="G35" t="str">
         <f>[3]transition_prob_reg_for!C15</f>
-        <v>(0.0000013)</v>
-      </c>
-      <c r="H33" t="str">
+        <v>(0.0000015)</v>
+      </c>
+      <c r="H35" t="str">
         <f>[3]transition_prob_reg_for!E15</f>
-        <v>(0.0000013)</v>
-      </c>
-      <c r="I33" t="str">
+        <v>(0.0000015)</v>
+      </c>
+      <c r="I35" t="str">
         <f>[3]transition_prob_reg_for!G15</f>
-        <v>(0.0000013)</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="1">
+        <v>(0.0000015)</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>1.88</v>
       </c>
-      <c r="C34" t="str">
+      <c r="C36" t="str">
         <f>[3]transition_prob_reg_for!B17</f>
         <v>0.011***</v>
       </c>
-      <c r="D34" t="str">
+      <c r="D36" t="str">
         <f>[3]transition_prob_reg_for!D17</f>
-        <v>0.0089***</v>
-      </c>
-      <c r="E34" t="str">
+        <v>0.0096***</v>
+      </c>
+      <c r="E36" t="str">
         <f>[3]transition_prob_reg_for!F17</f>
-        <v>0.0057***</v>
-      </c>
-      <c r="F34"/>
-      <c r="G34" t="str">
-        <f>[3]transition_prob_reg_for!C17</f>
-        <v>0.0075***</v>
-      </c>
-      <c r="H34" t="str">
-        <f>[3]transition_prob_reg_for!E17</f>
-        <v>0.0050***</v>
-      </c>
-      <c r="I34" t="str">
-        <f>[3]transition_prob_reg_for!G17</f>
-        <v>0.0052***</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>(1.66)</v>
-      </c>
-      <c r="C35" t="str">
-        <f>[3]transition_prob_reg_for!B18</f>
-        <v>(0.0000079)</v>
-      </c>
-      <c r="D35" t="str">
-        <f>[3]transition_prob_reg_for!D18</f>
-        <v>(0.0000080)</v>
-      </c>
-      <c r="E35" t="str">
-        <f>[3]transition_prob_reg_for!F18</f>
-        <v>(0.0000079)</v>
-      </c>
-      <c r="F35"/>
-      <c r="G35" t="str">
-        <f>[3]transition_prob_reg_for!C18</f>
-        <v>(0.000011)</v>
-      </c>
-      <c r="H35" t="str">
-        <f>[3]transition_prob_reg_for!E18</f>
-        <v>(0.000011)</v>
-      </c>
-      <c r="I35" t="str">
-        <f>[3]transition_prob_reg_for!G18</f>
-        <v>(0.000011)</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" t="str">
-        <f>[3]transition_prob_reg_for!B20</f>
-        <v>-0.044***</v>
-      </c>
-      <c r="D36" t="str">
-        <f>[3]transition_prob_reg_for!D20</f>
-        <v>-0.033***</v>
-      </c>
-      <c r="E36" t="str">
-        <f>[3]transition_prob_reg_for!F20</f>
-        <v>-0.042***</v>
+        <v>0.0059***</v>
       </c>
       <c r="F36"/>
       <c r="G36" t="str">
+        <f>[3]transition_prob_reg_for!C17</f>
+        <v>0.0081***</v>
+      </c>
+      <c r="H36" t="str">
+        <f>[3]transition_prob_reg_for!E17</f>
+        <v>0.0054***</v>
+      </c>
+      <c r="I36" t="str">
+        <f>[3]transition_prob_reg_for!G17</f>
+        <v>0.0057***</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>(1.62)</v>
+      </c>
+      <c r="C37" t="str">
+        <f>[3]transition_prob_reg_for!B18</f>
+        <v>(0.0000090)</v>
+      </c>
+      <c r="D37" t="str">
+        <f>[3]transition_prob_reg_for!D18</f>
+        <v>(0.0000093)</v>
+      </c>
+      <c r="E37" t="str">
+        <f>[3]transition_prob_reg_for!F18</f>
+        <v>(0.0000091)</v>
+      </c>
+      <c r="F37"/>
+      <c r="G37" t="str">
+        <f>[3]transition_prob_reg_for!C18</f>
+        <v>(0.000013)</v>
+      </c>
+      <c r="H37" t="str">
+        <f>[3]transition_prob_reg_for!E18</f>
+        <v>(0.000013)</v>
+      </c>
+      <c r="I37" t="str">
+        <f>[3]transition_prob_reg_for!G18</f>
+        <v>(0.000013)</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="str">
+        <f>[3]transition_prob_reg_for!B20</f>
+        <v>-0.043***</v>
+      </c>
+      <c r="D38" t="str">
+        <f>[3]transition_prob_reg_for!D20</f>
+        <v>-0.031***</v>
+      </c>
+      <c r="E38" t="str">
+        <f>[3]transition_prob_reg_for!F20</f>
+        <v>-0.041***</v>
+      </c>
+      <c r="F38"/>
+      <c r="G38" t="str">
         <f>[3]transition_prob_reg_for!C20</f>
-        <v>-0.062***</v>
-      </c>
-      <c r="H36" t="str">
+        <v>-0.061***</v>
+      </c>
+      <c r="H38" t="str">
         <f>[3]transition_prob_reg_for!E20</f>
-        <v>-0.058***</v>
-      </c>
-      <c r="I36" t="str">
+        <v>-0.057***</v>
+      </c>
+      <c r="I38" t="str">
         <f>[3]transition_prob_reg_for!G20</f>
         <v>-0.053***</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" t="str">
-        <f>[3]transition_prob_reg_for!B21</f>
-        <v>(0.000064)</v>
-      </c>
-      <c r="D37" t="str">
-        <f>[3]transition_prob_reg_for!D21</f>
-        <v>(0.000062)</v>
-      </c>
-      <c r="E37" t="str">
-        <f>[3]transition_prob_reg_for!F21</f>
-        <v>(0.000061)</v>
-      </c>
-      <c r="F37"/>
-      <c r="G37" t="str">
-        <f>[3]transition_prob_reg_for!C21</f>
-        <v>(0.000094)</v>
-      </c>
-      <c r="H37" t="str">
-        <f>[3]transition_prob_reg_for!E21</f>
-        <v>(0.000093)</v>
-      </c>
-      <c r="I37" t="str">
-        <f>[3]transition_prob_reg_for!G21</f>
-        <v>(0.000092)</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="1">
-        <f t="shared" si="0"/>
-        <v>16.649999999999999</v>
-      </c>
-      <c r="C38" t="str">
-        <f>[3]transition_prob_reg_for!B23</f>
-        <v>0.00017***</v>
-      </c>
-      <c r="D38" t="str">
-        <f>[3]transition_prob_reg_for!D23</f>
-        <v>0.00023***</v>
-      </c>
-      <c r="E38" t="str">
-        <f>[3]transition_prob_reg_for!F23</f>
-        <v>0.00018***</v>
-      </c>
-      <c r="F38"/>
-      <c r="G38" t="str">
-        <f>[3]transition_prob_reg_for!C23</f>
-        <v>-0.00016***</v>
-      </c>
-      <c r="H38" t="str">
-        <f>[3]transition_prob_reg_for!E23</f>
-        <v>0.00012***</v>
-      </c>
-      <c r="I38" t="str">
-        <f>[3]transition_prob_reg_for!G23</f>
-        <v>0.000031***</v>
-      </c>
-    </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>(21.05)</v>
+        <v>13</v>
       </c>
       <c r="C39" t="str">
-        <f>[3]transition_prob_reg_for!B24</f>
-        <v>(0.00000058)</v>
+        <f>[3]transition_prob_reg_for!B21</f>
+        <v>(0.000070)</v>
       </c>
       <c r="D39" t="str">
-        <f>[3]transition_prob_reg_for!D24</f>
-        <v>(0.0000074)</v>
+        <f>[3]transition_prob_reg_for!D21</f>
+        <v>(0.000069)</v>
       </c>
       <c r="E39" t="str">
-        <f>[3]transition_prob_reg_for!F24</f>
-        <v>(0.0000073)</v>
+        <f>[3]transition_prob_reg_for!F21</f>
+        <v>(0.000067)</v>
       </c>
       <c r="F39"/>
       <c r="G39" t="str">
+        <f>[3]transition_prob_reg_for!C21</f>
+        <v>(0.00010)</v>
+      </c>
+      <c r="H39" t="str">
+        <f>[3]transition_prob_reg_for!E21</f>
+        <v>(0.00010)</v>
+      </c>
+      <c r="I39" t="str">
+        <f>[3]transition_prob_reg_for!G21</f>
+        <v>(0.00010)</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="1">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="C40" t="str">
+        <f>[3]transition_prob_reg_for!B23</f>
+        <v>-0.0012***</v>
+      </c>
+      <c r="D40" t="str">
+        <f>[3]transition_prob_reg_for!D23</f>
+        <v>-0.0026***</v>
+      </c>
+      <c r="E40" t="str">
+        <f>[3]transition_prob_reg_for!F23</f>
+        <v>-0.0022***</v>
+      </c>
+      <c r="F40"/>
+      <c r="G40" t="str">
+        <f>[3]transition_prob_reg_for!C23</f>
+        <v>0.00067***</v>
+      </c>
+      <c r="H40" t="str">
+        <f>[3]transition_prob_reg_for!E23</f>
+        <v>-0.0027***</v>
+      </c>
+      <c r="I40" t="str">
+        <f>[3]transition_prob_reg_for!G23</f>
+        <v>-0.0029***</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>(0.44)</v>
+      </c>
+      <c r="C41" t="str">
+        <f>[3]transition_prob_reg_for!B24</f>
+        <v>(0.000038)</v>
+      </c>
+      <c r="D41" t="str">
+        <f>[3]transition_prob_reg_for!D24</f>
+        <v>(0.000039)</v>
+      </c>
+      <c r="E41" t="str">
+        <f>[3]transition_prob_reg_for!F24</f>
+        <v>(0.000038)</v>
+      </c>
+      <c r="F41"/>
+      <c r="G41" t="str">
         <f>[3]transition_prob_reg_for!C24</f>
-        <v>(0.00000073)</v>
-      </c>
-      <c r="H39" t="str">
+        <v>(0.000047)</v>
+      </c>
+      <c r="H41" t="str">
         <f>[3]transition_prob_reg_for!E24</f>
-        <v>(0.0000087)</v>
-      </c>
-      <c r="I39" t="str">
+        <v>(0.000048)</v>
+      </c>
+      <c r="I41" t="str">
         <f>[3]transition_prob_reg_for!G24</f>
-        <v>(0.0000086)</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40"/>
-      <c r="H40"/>
-      <c r="I40"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="7" t="s">
+        <v>(0.000048)</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="7" t="str">
+      <c r="B43" s="8"/>
+      <c r="C43" s="7" t="str">
+        <f>[3]transition_prob_reg_for!B28</f>
+        <v/>
+      </c>
+      <c r="D43" s="7" t="str">
+        <f>[3]transition_prob_reg_for!D28</f>
+        <v/>
+      </c>
+      <c r="E43" s="7" t="str">
+        <f>[3]transition_prob_reg_for!F28</f>
+        <v/>
+      </c>
+      <c r="F43" s="8"/>
+      <c r="G43" s="7" t="str">
+        <f>[3]transition_prob_reg_for!C28</f>
+        <v/>
+      </c>
+      <c r="H43" s="7" t="str">
+        <f>[3]transition_prob_reg_for!E28</f>
+        <v/>
+      </c>
+      <c r="I43" s="7" t="str">
+        <f>[3]transition_prob_reg_for!G28</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="11"/>
+      <c r="C44" s="10" t="str">
         <f>[3]transition_prob_reg_for!B26</f>
-        <v>724652470</v>
-      </c>
-      <c r="D41" s="7" t="str">
+        <v>573058893</v>
+      </c>
+      <c r="D44" s="10" t="str">
         <f>[3]transition_prob_reg_for!D26</f>
-        <v>724652470</v>
-      </c>
-      <c r="E41" s="7" t="str">
+        <v>573058893</v>
+      </c>
+      <c r="E44" s="10" t="str">
         <f>[3]transition_prob_reg_for!F26</f>
-        <v>724652470</v>
-      </c>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7" t="str">
+        <v>573058893</v>
+      </c>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10" t="str">
         <f>[3]transition_prob_reg_for!C26</f>
-        <v>488250930</v>
-      </c>
-      <c r="H41" s="7" t="str">
+        <v>381956553</v>
+      </c>
+      <c r="H44" s="10" t="str">
         <f>[3]transition_prob_reg_for!E26</f>
-        <v>488250930</v>
-      </c>
-      <c r="I41" s="7" t="str">
+        <v>381956553</v>
+      </c>
+      <c r="I44" s="10" t="str">
         <f>[3]transition_prob_reg_for!G26</f>
-        <v>488250930</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="5" t="s">
+        <v>381956553</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="5" t="str">
+      <c r="B45" s="6"/>
+      <c r="C45" s="5" t="str">
         <f>[3]transition_prob_reg_for!B27</f>
-        <v>0.856</v>
-      </c>
-      <c r="D42" s="5" t="str">
+        <v>0.023</v>
+      </c>
+      <c r="D45" s="5" t="str">
         <f>[3]transition_prob_reg_for!D27</f>
         <v>0.054</v>
       </c>
-      <c r="E42" s="5" t="str">
+      <c r="E45" s="5" t="str">
         <f>[3]transition_prob_reg_for!F27</f>
-        <v>0.097</v>
-      </c>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5" t="str">
+        <v>0.098</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5" t="str">
         <f>[3]transition_prob_reg_for!C27</f>
-        <v>0.858</v>
-      </c>
-      <c r="H42" s="5" t="str">
+        <v>0.005</v>
+      </c>
+      <c r="H45" s="5" t="str">
         <f>[3]transition_prob_reg_for!E27</f>
         <v>0.034</v>
       </c>
-      <c r="I42" s="5" t="str">
+      <c r="I45" s="5" t="str">
         <f>[3]transition_prob_reg_for!G27</f>
-        <v>0.057</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+        <v>0.058</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="G3:I3"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="G26:I26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
